--- a/DTT Git Deliverables/DTT-Assessment-Hour-Log.xlsx
+++ b/DTT Git Deliverables/DTT-Assessment-Hour-Log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\Unity Projects\DTT Maze\DTT Git Deliverables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4977431-0190-4DEB-97B6-062D3DACE18A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B6AE952-1B4E-49E7-9D6A-62626B67A450}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Subject</t>
   </si>
@@ -82,6 +82,37 @@
     <t>In this hour I set up the project on Git, resolved an old Sourcetree bug 
 and looked into the different algorithms on the wikipedia page  that was mentioned in the assessment PDF. After which I used my findings on the
 randomized depth-first algorithm to make a small Cell script.</t>
+  </si>
+  <si>
+    <t>Spent 2 hours setting up everything for the maze to generate through a 
+collection of cells and a grid for recursively filling the maze in. Only to 
+reach the part where I setup the camera and stop dead in my tracks due
+to abysmal performance.</t>
+  </si>
+  <si>
+    <t>Started grid generation and testing the size of the maze while completely staying in the view of the camera. Found that performance is giant issue.</t>
+  </si>
+  <si>
+    <t>Any maze larger than 100x100 lags out whatever I throw at it, tried using 
+sprite renderers instead of 3d objects to lower the vertice count and 
+by manually batching everything after the built in static batching happens.
+But it seems I have to start over and this time start with compute shaders,
+as a maze of 250x250 cells will otherwise just not render. This was made
+sure by using the profiler which showed me that I had about 300ms cpu
+waiting time due to rendering alone.</t>
+  </si>
+  <si>
+    <t>Full performance check to see if my maze idea is even possible due to having to render the whole maze at any size.</t>
+  </si>
+  <si>
+    <t>Instead of having cells with walls, I decided a different approach. Now
+the walls are generated seperately and this way there's also no more 
+overlapping walls making the amount of triangles lower. These walls
+are currently generated but I still have to find a way to identify the 
+empty space between the walls as a cell to make the algorithm work.</t>
+  </si>
+  <si>
+    <t>Instead of cell first generation I am now trying wall first generation.</t>
   </si>
 </sst>
 </file>
@@ -424,6 +455,9 @@
     <xf numFmtId="49" fontId="11" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -435,9 +469,6 @@
     </xf>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1699,7 +1730,7 @@
   <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1713,22 +1744,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="21"/>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
+      <c r="A1" s="22"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
       <c r="E1" s="10"/>
       <c r="F1" s="2"/>
     </row>
     <row r="2" spans="1:6" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="24"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="25"/>
     </row>
     <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A3" s="16" t="s">
@@ -1758,33 +1789,57 @@
       <c r="C4" s="18">
         <v>45427</v>
       </c>
-      <c r="D4" s="25" t="s">
+      <c r="D4" s="21" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="20"/>
       <c r="F4" s="4"/>
     </row>
-    <row r="5" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="5"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="15"/>
+    <row r="5" spans="1:6" ht="52.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="17">
+        <v>2</v>
+      </c>
+      <c r="C5" s="18">
+        <v>45428</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>9</v>
+      </c>
       <c r="E5" s="20"/>
       <c r="F5" s="4"/>
     </row>
-    <row r="6" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="19"/>
-      <c r="B6" s="17"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="15"/>
+    <row r="6" spans="1:6" ht="129" x14ac:dyDescent="0.35">
+      <c r="A6" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="17">
+        <v>2</v>
+      </c>
+      <c r="C6" s="18">
+        <v>45428</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>11</v>
+      </c>
       <c r="E6" s="20"/>
       <c r="F6" s="4"/>
     </row>
-    <row r="7" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="5"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="15"/>
+    <row r="7" spans="1:6" ht="65.25" x14ac:dyDescent="0.35">
+      <c r="A7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="17">
+        <v>2</v>
+      </c>
+      <c r="C7" s="18">
+        <v>45429</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>13</v>
+      </c>
       <c r="E7" s="20"/>
       <c r="F7" s="4"/>
     </row>
@@ -1970,7 +2025,7 @@
       </c>
       <c r="B30" s="14">
         <f>SUMIF(E4:E28,"&lt;&gt;x",B4:B28)</f>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>

--- a/DTT Git Deliverables/DTT-Assessment-Hour-Log.xlsx
+++ b/DTT Git Deliverables/DTT-Assessment-Hour-Log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\Unity Projects\DTT Maze\DTT Git Deliverables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B6AE952-1B4E-49E7-9D6A-62626B67A450}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EA58406-D31B-456A-87B6-F253FC165DE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Subject</t>
   </si>
@@ -113,6 +113,14 @@
   </si>
   <si>
     <t>Instead of cell first generation I am now trying wall first generation.</t>
+  </si>
+  <si>
+    <t>The walls are generated and the cells are succesfully all found through
+a seperate class with a function that attempts to find all the cells by 
+going through them in the same order they are generated.</t>
+  </si>
+  <si>
+    <t>Finding all cells from knowing where the walls are.</t>
   </si>
 </sst>
 </file>
@@ -1729,8 +1737,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1843,11 +1851,19 @@
       <c r="E7" s="20"/>
       <c r="F7" s="4"/>
     </row>
-    <row r="8" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="5"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="15"/>
+    <row r="8" spans="1:6" ht="39.75" x14ac:dyDescent="0.35">
+      <c r="A8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="17">
+        <v>2</v>
+      </c>
+      <c r="C8" s="18">
+        <v>45429</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>15</v>
+      </c>
       <c r="E8" s="20"/>
       <c r="F8" s="4"/>
     </row>
@@ -2025,7 +2041,7 @@
       </c>
       <c r="B30" s="14">
         <f>SUMIF(E4:E28,"&lt;&gt;x",B4:B28)</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>

--- a/DTT Git Deliverables/DTT-Assessment-Hour-Log.xlsx
+++ b/DTT Git Deliverables/DTT-Assessment-Hour-Log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\Unity Projects\DTT Maze\DTT Git Deliverables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EA58406-D31B-456A-87B6-F253FC165DE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C11615DB-19F1-42F5-BC66-7BD8F282358B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Subject</t>
   </si>
@@ -121,6 +121,13 @@
   </si>
   <si>
     <t>Finding all cells from knowing where the walls are.</t>
+  </si>
+  <si>
+    <t>Bugfix for cell array</t>
+  </si>
+  <si>
+    <t>The cells were counted but not properly implemented with their actual
+walls. This is now fixed.</t>
   </si>
 </sst>
 </file>
@@ -1738,7 +1745,7 @@
   <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1867,11 +1874,19 @@
       <c r="E8" s="20"/>
       <c r="F8" s="4"/>
     </row>
-    <row r="9" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="5"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="15"/>
+    <row r="9" spans="1:6" ht="27" x14ac:dyDescent="0.35">
+      <c r="A9" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="17">
+        <v>1</v>
+      </c>
+      <c r="C9" s="18">
+        <v>45429</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>18</v>
+      </c>
       <c r="E9" s="20"/>
       <c r="F9" s="4"/>
     </row>
@@ -2041,7 +2056,7 @@
       </c>
       <c r="B30" s="14">
         <f>SUMIF(E4:E28,"&lt;&gt;x",B4:B28)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>

--- a/DTT Git Deliverables/DTT-Assessment-Hour-Log.xlsx
+++ b/DTT Git Deliverables/DTT-Assessment-Hour-Log.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\Unity Projects\DTT Maze\DTT Git Deliverables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C11615DB-19F1-42F5-BC66-7BD8F282358B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9FA8A17-082F-453E-A717-DFC4E0928872}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DTT Test Hour Log" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Subject</t>
   </si>
@@ -128,6 +128,15 @@
   <si>
     <t>The cells were counted but not properly implemented with their actual
 walls. This is now fixed.</t>
+  </si>
+  <si>
+    <t>Realized that with the current cell collection checking where neighbours 
+is really annoying. So I started work on a cell grid that is made from the
+collection of cells. This grid will be used to check possible empty 
+neighbours, making the system ready for pretty much every algorithm.</t>
+  </si>
+  <si>
+    <t>Creating a cell grid from collection of cells.</t>
   </si>
 </sst>
 </file>
@@ -1745,7 +1754,7 @@
   <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1890,11 +1899,19 @@
       <c r="E9" s="20"/>
       <c r="F9" s="4"/>
     </row>
-    <row r="10" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="5"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="15"/>
+    <row r="10" spans="1:6" ht="52.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="17">
+        <v>3</v>
+      </c>
+      <c r="C10" s="18">
+        <v>45434</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>19</v>
+      </c>
       <c r="E10" s="20"/>
       <c r="F10" s="4"/>
     </row>
@@ -2056,7 +2073,7 @@
       </c>
       <c r="B30" s="14">
         <f>SUMIF(E4:E28,"&lt;&gt;x",B4:B28)</f>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>

--- a/DTT Git Deliverables/DTT-Assessment-Hour-Log.xlsx
+++ b/DTT Git Deliverables/DTT-Assessment-Hour-Log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\Unity Projects\DTT Maze\DTT Git Deliverables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9FA8A17-082F-453E-A717-DFC4E0928872}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4C857C8-626F-4306-AE6D-B688D6EA36D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Subject</t>
   </si>
@@ -137,6 +137,15 @@
   </si>
   <si>
     <t>Creating a cell grid from collection of cells.</t>
+  </si>
+  <si>
+    <t>Found many wrong integer casts, and poor calculations in my handling
+of finding all the cells and placing them into a grid for ease of access.
+Spent a good two hours fixing all of these and now the randomized 
+depth-first search algorithm is working smoothly.</t>
+  </si>
+  <si>
+    <t>Fixing cell finding and grid construction</t>
   </si>
 </sst>
 </file>
@@ -1753,8 +1762,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1915,11 +1924,19 @@
       <c r="E10" s="20"/>
       <c r="F10" s="4"/>
     </row>
-    <row r="11" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="5"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="15"/>
+    <row r="11" spans="1:6" ht="52.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="17">
+        <v>2</v>
+      </c>
+      <c r="C11" s="18">
+        <v>45434</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>21</v>
+      </c>
       <c r="E11" s="20"/>
       <c r="F11" s="4"/>
     </row>
@@ -2073,7 +2090,7 @@
       </c>
       <c r="B30" s="14">
         <f>SUMIF(E4:E28,"&lt;&gt;x",B4:B28)</f>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>

--- a/DTT Git Deliverables/DTT-Assessment-Hour-Log.xlsx
+++ b/DTT Git Deliverables/DTT-Assessment-Hour-Log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\Unity Projects\DTT Maze\DTT Git Deliverables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4C857C8-626F-4306-AE6D-B688D6EA36D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57E6D04C-527A-4B3D-B5C6-23D6E43E73E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Subject</t>
   </si>
@@ -146,6 +146,16 @@
   </si>
   <si>
     <t>Fixing cell finding and grid construction</t>
+  </si>
+  <si>
+    <t>Finalized all grid and cell collection and also finalized the randomized 
+depth-first search with a stack implementation instead of recursive. 
+Had issues with properly assigning the southern wall as my original 
+was very poorly done. Added a lot of comments across the project.
+Last step is a simple GUI to set the maze parameters and remake mazes.</t>
+  </si>
+  <si>
+    <t>Implemented algorithm and added comments</t>
   </si>
 </sst>
 </file>
@@ -1762,8 +1772,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1940,11 +1950,19 @@
       <c r="E11" s="20"/>
       <c r="F11" s="4"/>
     </row>
-    <row r="12" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="5"/>
-      <c r="B12" s="17"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="15"/>
+    <row r="12" spans="1:6" ht="65.25" x14ac:dyDescent="0.35">
+      <c r="A12" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="17">
+        <v>3</v>
+      </c>
+      <c r="C12" s="18">
+        <v>45435</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>23</v>
+      </c>
       <c r="E12" s="20"/>
       <c r="F12" s="4"/>
     </row>
@@ -2090,7 +2108,7 @@
       </c>
       <c r="B30" s="14">
         <f>SUMIF(E4:E28,"&lt;&gt;x",B4:B28)</f>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>

--- a/DTT Git Deliverables/DTT-Assessment-Hour-Log.xlsx
+++ b/DTT Git Deliverables/DTT-Assessment-Hour-Log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\Unity Projects\DTT Maze\DTT Git Deliverables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57E6D04C-527A-4B3D-B5C6-23D6E43E73E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40025B47-7A15-4983-AFF4-9CCAF26AC1F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Subject</t>
   </si>
@@ -156,6 +156,15 @@
   </si>
   <si>
     <t>Implemented algorithm and added comments</t>
+  </si>
+  <si>
+    <t>Added UI elements to generate maze</t>
+  </si>
+  <si>
+    <t>Added UI elements to set already determined modifiers now through
+buttons and sliders. These correspond to the same settings that are 
+available in the Editor. Added simple reset option that just reloads the
+scene.</t>
   </si>
 </sst>
 </file>
@@ -1772,8 +1781,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1966,11 +1975,19 @@
       <c r="E12" s="20"/>
       <c r="F12" s="4"/>
     </row>
-    <row r="13" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="5"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="15"/>
+    <row r="13" spans="1:6" ht="52.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="17">
+        <v>2</v>
+      </c>
+      <c r="C13" s="18">
+        <v>45435</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>26</v>
+      </c>
       <c r="E13" s="20"/>
       <c r="F13" s="4"/>
     </row>
@@ -2108,7 +2125,7 @@
       </c>
       <c r="B30" s="14">
         <f>SUMIF(E4:E28,"&lt;&gt;x",B4:B28)</f>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>

--- a/DTT Git Deliverables/DTT-Assessment-Hour-Log.xlsx
+++ b/DTT Git Deliverables/DTT-Assessment-Hour-Log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\Unity Projects\DTT Maze\DTT Git Deliverables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40025B47-7A15-4983-AFF4-9CCAF26AC1F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E46D9FE-CF9F-4721-90FE-D806F59CE6F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
   <si>
     <t>Subject</t>
   </si>
@@ -165,6 +165,26 @@
 buttons and sliders. These correspond to the same settings that are 
 available in the Editor. Added simple reset option that just reloads the
 scene.</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Added Wilsons algorithm</t>
+  </si>
+  <si>
+    <t>Wanted to really challenge myself so I looked up what  the hardest 
+algorithm to implement was according to others online. They all seemed
+to agree that Wilsons was the hardest to get right so I figured I'll add that
+one. They were not lying as it's quite a tricky one but I managed to 
+implement it nonetheless.</t>
+  </si>
+  <si>
+    <t>Added skybox and gradient</t>
+  </si>
+  <si>
+    <t>Added a skybox shader I tend to re-use a lot for small projects and used
+DoTween to attach a animated gradient to all the wall materials.</t>
   </si>
 </sst>
 </file>
@@ -1781,8 +1801,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1999,20 +2019,40 @@
       <c r="E14" s="20"/>
       <c r="F14" s="4"/>
     </row>
-    <row r="15" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="5"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="20"/>
+    <row r="15" spans="1:6" ht="90.75" x14ac:dyDescent="0.35">
+      <c r="A15" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="17">
+        <v>5</v>
+      </c>
+      <c r="C15" s="18">
+        <v>45439</v>
+      </c>
+      <c r="D15" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" s="20" t="s">
+        <v>27</v>
+      </c>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="5"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="20"/>
+    <row r="16" spans="1:6" ht="27" x14ac:dyDescent="0.35">
+      <c r="A16" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="17">
+        <v>1</v>
+      </c>
+      <c r="C16" s="18">
+        <v>45439</v>
+      </c>
+      <c r="D16" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="E16" s="20" t="s">
+        <v>27</v>
+      </c>
       <c r="F16" s="4"/>
     </row>
     <row r="17" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -2125,7 +2165,7 @@
       </c>
       <c r="B30" s="14">
         <f>SUMIF(E4:E28,"&lt;&gt;x",B4:B28)</f>
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
